--- a/biology/Zoologie/Acleris_sparsana/Acleris_sparsana.xlsx
+++ b/biology/Zoologie/Acleris_sparsana/Acleris_sparsana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acleris sparsana est une espèce de lépidoptères (papillons) de la famille des Tortricidae, dont les chenilles vivent sur les hêtres, les charmes et les érables.
 On trouve cette espèce en Europe.
